--- a/medicine/Enfance/Thorne_Smith/Thorne_Smith.xlsx
+++ b/medicine/Enfance/Thorne_Smith/Thorne_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thorne Smith, né le 27 mars 1892 à Annapolis (Maryland) et mort le 21 juin 1934 à Sarasota (Floride), est un écrivain américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1892 dans une famille de militaires, il commence sa carrière d’écrivain à la fin de la Première Guerre mondiale dans Broadside, une gazette destinée aux soldats. Il avait quitté auparavant son emploi pour rejoindre les rangs de la United States Navy. Dans une série de courts textes humoristique, son personnage de recrue maladroite, nommé Biltmore Oswald, obtient un immense succès public. 
 Démobilisé, Smith poursuit en parallèle à ses activités de publicitaire une carrière littéraire, délaissant assez vite la veine sombre pour s’orienter vers la satire des mœurs du moment. Après ce retour à la vie civile, son premier grand succès est Topper (1926), roman où un aimable employé de banque est sauvé de l’ennui des dimanches d’été par un couple de fantômes passablement plaisantins, George et Marion Kerby. Ce récit alliant humour et fantastique a bientôt une suite romanesque (Topper Takes a Trip, 1932), aussi bien que cinématographique ; l’adaptation la plus réussie demeurant Le Couple invisible (Topper), un film américain réalisé en 1937 par Norman Z. McLeod, qui met en scène Cary Grant et Constance Bennett dans les rôles des époux Kerby.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Topper (1926), aussi paru sous le titre The Jovial Ghosts
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Topper (1926), aussi paru sous le titre The Jovial Ghosts
 Dream's End (1927)
 The Stray Lamb (1929)
 Did She Fall? (1930) - un roman policier
@@ -560,15 +579,7 @@
 Rain in the Doorway (1933)
 Skin and Bones (1933)
 The Glorious Pool (1934)
-The Passionate Witch (1941), roman posthume achevé par Norman H. Matson Publié en français sous le titre Ma femme est une sorcière, traduit par Yves Maurion, Paris, Éditions Aillaud, Bastos et Cie, coll. « Les deux sirènes », 1946 ; nouvelle traduction sous le même titre par Anne-Sylvie Homassel, Paris, Éditions Terre de Brume, coll. « Terres mystérieuses », 2005  (ISBN 2-84362-266-2)
-Ouvrage de littérature d'enfance et de jeunesse
-Lazy Bear Lane (1931)
-Recueils de nouvelles
-Série Biltmore Oswald
-Biltmore Oswald: The Diary of a Hapless Recruit (1918)
-Out O' Luck: Biltmore Oswald Very Much at Sea (1919)
-Poésie
-Haunts and Bypaths (1919)</t>
+The Passionate Witch (1941), roman posthume achevé par Norman H. Matson Publié en français sous le titre Ma femme est une sorcière, traduit par Yves Maurion, Paris, Éditions Aillaud, Bastos et Cie, coll. « Les deux sirènes », 1946 ; nouvelle traduction sous le même titre par Anne-Sylvie Homassel, Paris, Éditions Terre de Brume, coll. « Terres mystérieuses », 2005  (ISBN 2-84362-266-2)</t>
         </is>
       </c>
     </row>
@@ -593,10 +604,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lazy Bear Lane (1931)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thorne_Smith</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thorne_Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Biltmore Oswald</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Biltmore Oswald: The Diary of a Hapless Recruit (1918)
+Out O' Luck: Biltmore Oswald Very Much at Sea (1919)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thorne_Smith</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thorne_Smith</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Haunts and Bypaths (1919)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thorne_Smith</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thorne_Smith</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptations au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1937 : Le Couple invisible (Topper), film américain réalisé par Norman Z. McLeod
 1937 : Fantômes en croisière (Topper Takes a Trip), film américain réalisé par Norman Z. McLeod
